--- a/PD/v5/assets/public/uploadOrder.xlsx
+++ b/PD/v5/assets/public/uploadOrder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13433\Desktop\工作\物流费控\导入模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13433\Desktop\工作\物流费控\导入模板\新模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF21637-931D-40BB-9DA0-89CACF1333A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2CEBCC7-CBCC-4178-BD54-B2C78A3BEF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
+    <t>*订单编号</t>
+  </si>
+  <si>
     <t>订单码</t>
   </si>
   <si>
@@ -120,35 +123,24 @@
   </si>
   <si>
     <t>出库时间</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单编号</t>
-    </r>
-    <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -290,19 +282,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,7 +409,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,120 +730,133 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="34" width="30" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="20" customWidth="1"/>
+    <col min="24" max="25" width="15" customWidth="1"/>
+    <col min="26" max="28" width="20" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="34" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="25.05" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="34" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="33" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -878,7 +870,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>